--- a/TC_Performance_Test_20240906_Atosh.xlsx
+++ b/TC_Performance_Test_20240906_Atosh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atosh\ATOSH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD55C3B-4B08-4653-97C7-8CACA59ED8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB291FB0-1F93-487D-B660-7F7C083B5CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Title</t>
   </si>
@@ -90,13 +90,25 @@
   </si>
   <si>
     <t>PT for Concurrent Calls - GET /user API</t>
+  </si>
+  <si>
+    <t>Test Inputs</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Atosh</t>
+  </si>
+  <si>
+    <t>TC</t>
   </si>
   <si>
     <t>Open JMeter
 Create a new Thread Group
-Set Number of Threads (users) to 50
-Set Ramp-up period to 30 seconds
-Set Loop Count to Forever
+Set Number of Threads (users) to 10
+Set Ramp-up period to 10 seconds
+Set Loop Count to 1
 Add HTTP Request sampler
 Set Method to GET
 Set Path to /users
@@ -107,14 +119,17 @@
 Analyze the results</t>
   </si>
   <si>
+    <t>URL: https://api.github.com/users
+Initial Users: 10
+Duration: 5 minutes</t>
+  </si>
+  <si>
     <t>Open JMeter
-Install Stepping Thread Group plugin
-Create a Stepping Thread Group
-Set Start threads count to 10
+Set Start threads count to 20
 Set Initial delay to 0
-Set Increment to 10
+Set Increment to 20
 Set Increment every to 60 seconds (1 minute)
-Set Hold load for to 30 seconds
+Set Hold load for to 40 seconds
 Set Stop count to 100
 Add HTTP Request sampler (same as Test Case 1)
 Add listeners (same as Test Case 1)
@@ -122,10 +137,20 @@
 Analyze the results</t>
   </si>
   <si>
+    <t>URL: https://api.github.com/users
+Initial Users: 20
+End Users: 100</t>
+  </si>
+  <si>
+    <t>URL: https://api.github.com/users
+Concurrent Users: 50
+Duration: 5 minutes</t>
+  </si>
+  <si>
     <t>Open JMeter
 Create a Thread Group
-Set Number of Threads (users) to 100
-Set Ramp-up period to 60 seconds
+Set Number of Threads (users) to 50
+Set Ramp-up period to 20 seconds
 Set Loop Count to calculate 15 minutes duration
 Add HTTP Request sampler (same as Test Case 1)
 Add listeners (same as Test Case 1)
@@ -133,9 +158,14 @@
 Analyze the results</t>
   </si>
   <si>
+    <t>URL: https://api.github.com/users
+Concurrent Users: 50
+Duration: 15 minutes</t>
+  </si>
+  <si>
     <t>Open JMeter
-Create a Thread Group with 100 users
-Add a Loop Controller set to 5 iterations
+Create a Thread Group with 50 users
+Add a Loop Controller set to 20 iterations
 Add HTTP Request sampler inside the Loop Controller
 Set Method to GET and Path to /users
 Add Constant Timer with 100ms delay
@@ -143,46 +173,12 @@
 Run the test for 5 minutes
 Analyze the results</t>
   </si>
-  <si>
-    <t>URL: https://api.github.com/users
-Concurrent Users: 100
-Requests per User: 5
-Duration: 5 minutes</t>
-  </si>
-  <si>
-    <t>URL: https://api.github.com/users
-Concurrent Users: 100
-Duration: 15 minutes</t>
-  </si>
-  <si>
-    <t>URL: https://api.github.com/users
-Initial Users: 50
-Duration: 5 minutes</t>
-  </si>
-  <si>
-    <t>URL: https://api.github.com/users
-Initial Users: 10
-End Users: 100
-Duration: 10 minutes</t>
-  </si>
-  <si>
-    <t>Test Inputs</t>
-  </si>
-  <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>Atosh</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -198,6 +194,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -243,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -256,6 +260,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -272,6 +282,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>131</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE93434-F0ED-0915-EEC8-DD123FDA33AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="6540500"/>
+          <a:ext cx="11118850" cy="2540131"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>432375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>108075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB41614B-5E20-E1EF-20B9-4AF7208C7920}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9880600"/>
+          <a:ext cx="11182925" cy="2438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>445075</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>139827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C866D090-6ABB-7A4E-C544-AEC80226DD0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="13004800"/>
+          <a:ext cx="11189275" cy="2476627"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483177</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>127126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB32209-E29D-70E1-D87F-A9CA7CFE0C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="15970250"/>
+          <a:ext cx="11227377" cy="2444876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -561,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -599,10 +790,10 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -628,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>8</v>
@@ -660,13 +851,13 @@
         <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -692,13 +883,13 @@
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>8</v>
@@ -724,13 +915,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -742,7 +933,34 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="PqPhck40hOdyg4bREPXovX2EadYpWt7SAQ+eFnf4xZV7tVcwR48FBhCA0JBb8NSz01CXhEdZKTS3aMdA8OOg+w==" saltValue="gH0b2FiElWpvdgAirdIVFA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A43:XFD43"/>
+    <mergeCell ref="A59:XFD59"/>
+  </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5" xr:uid="{3FB4516E-9A3F-404A-A672-39C2947FF7CC}">
       <formula1>"Critical,Major,Medium,Low"</formula1>
@@ -756,5 +974,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>